--- a/SceneServer/tools/Xlsx/kx_item_attr_custom.xlsx
+++ b/SceneServer/tools/Xlsx/kx_item_attr_custom.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="10515"/>
+    <workbookView windowWidth="28365" windowHeight="15255"/>
   </bookViews>
   <sheets>
     <sheet name="kx_skill" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">kx_skill!$A$1:$B$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">kx_skill!$A$1:$B$81</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="114">
   <si>
     <t>idx</t>
   </si>
@@ -362,6 +362,15 @@
     <t>MaxHP</t>
   </si>
   <si>
+    <t>魔法值</t>
+  </si>
+  <si>
+    <t>MpMaxAdd</t>
+  </si>
+  <si>
+    <t>MaxMP</t>
+  </si>
+  <si>
     <t>红魔法抵抗力</t>
   </si>
   <si>
@@ -393,6 +402,18 @@
   </si>
   <si>
     <t>魔法反弹</t>
+  </si>
+  <si>
+    <t>物理技能攻击力Lv13</t>
+  </si>
+  <si>
+    <t>SBasicDamage</t>
+  </si>
+  <si>
+    <t>魔法技能攻击力Lv13</t>
+  </si>
+  <si>
+    <t>SSkillDamage</t>
   </si>
 </sst>
 </file>
@@ -405,14 +426,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -565,12 +579,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -881,48 +895,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -932,97 +949,94 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1352,10 +1366,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:G103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="6"/>
@@ -2121,7 +2135,7 @@
         <v>95</v>
       </c>
       <c r="G33" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:7">
@@ -2141,10 +2155,10 @@
         <v>97</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G34" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:7">
@@ -2152,19 +2166,19 @@
         <v>31</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C35" s="1">
         <v>158</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="G35" s="1">
         <v>1</v>
@@ -2175,19 +2189,19 @@
         <v>32</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C36" s="1">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E36" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="G36" s="1">
         <v>1</v>
@@ -2198,19 +2212,19 @@
         <v>33</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C37" s="1">
         <v>128</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E37" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="G37" s="1">
         <v>1</v>
@@ -2230,19 +2244,88 @@
         <v>105</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G38" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="102" ht="14.25"/>
+    <row r="39" customHeight="1" spans="1:7">
+      <c r="A39" s="1">
+        <v>35</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="1">
+        <v>128</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:7">
+      <c r="A40" s="1">
+        <v>36</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="1">
+        <v>64</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:7">
+      <c r="A41" s="1">
+        <v>37</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" s="1">
+        <v>644</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="103" ht="14.25"/>
   </sheetData>
-  <autoFilter ref="A1:B80">
-    <sortState ref="A1:B80">
+  <autoFilter ref="A1:B81">
+    <sortState ref="A1:B81">
       <sortCondition ref="A1:A80"/>
     </sortState>
     <extLst/>

--- a/SceneServer/tools/Xlsx/kx_item_attr_custom.xlsx
+++ b/SceneServer/tools/Xlsx/kx_item_attr_custom.xlsx
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="119">
   <si>
     <t>idx</t>
   </si>
@@ -95,6 +95,9 @@
     <t>base_val</t>
   </si>
   <si>
+    <t>attr_replace</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -410,10 +413,22 @@
     <t>SBasicDamage</t>
   </si>
   <si>
+    <t>1;2;3;4;5;6;7;8;9;10;11;12;13;14;15;16;17;18;19;20;20;20;20;20;20</t>
+  </si>
+  <si>
     <t>魔法技能攻击力Lv13</t>
   </si>
   <si>
     <t>SSkillDamage</t>
+  </si>
+  <si>
+    <t>物理技能攻击力Lv14</t>
+  </si>
+  <si>
+    <t>1;1;1;1;1;1;1;1;1;1;1;1;1;1;1;1;1;1;1;1;21;22;23;24;25</t>
+  </si>
+  <si>
+    <t>魔法技能攻击力Lv14</t>
   </si>
 </sst>
 </file>
@@ -1366,13 +1381,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G103"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="34.75" style="1" customWidth="1"/>
@@ -1381,7 +1396,7 @@
     <col min="5" max="5" width="24.25" style="1" customWidth="1"/>
     <col min="6" max="6" width="42.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="1" customWidth="1"/>
+    <col min="8" max="8" width="59.375" style="1" customWidth="1"/>
     <col min="9" max="9" width="8.625" style="1" customWidth="1"/>
     <col min="10" max="10" width="5" style="1" customWidth="1"/>
     <col min="11" max="11" width="6.375" style="1" customWidth="1"/>
@@ -1402,7 +1417,7 @@
     <col min="29" max="16384" width="15.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:7">
+    <row r="1" customHeight="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1424,51 +1439,57 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
@@ -1476,19 +1497,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1">
         <v>64</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" s="1">
         <v>3</v>
@@ -1499,19 +1520,19 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1">
         <v>64</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G6" s="1">
         <v>6</v>
@@ -1522,22 +1543,22 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1">
         <v>64</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
@@ -1545,22 +1566,22 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
         <v>64</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:7">
@@ -1568,22 +1589,22 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" s="1">
         <v>544</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:7">
@@ -1591,22 +1612,22 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1">
         <v>544</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:7">
@@ -1614,19 +1635,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1">
         <v>64</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="1">
         <v>5</v>
@@ -1637,19 +1658,19 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1">
         <v>64</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G12" s="1">
         <v>10</v>
@@ -1660,22 +1681,22 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" s="1">
         <v>64</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:7">
@@ -1683,22 +1704,22 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" s="1">
         <v>644</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:7">
@@ -1706,22 +1727,22 @@
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C15" s="1">
         <v>544</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:7">
@@ -1729,19 +1750,19 @@
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C16" s="1">
         <v>158</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G16" s="1">
         <v>1</v>
@@ -1752,19 +1773,19 @@
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C17" s="1">
         <v>670</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G17" s="1">
         <v>10</v>
@@ -1775,19 +1796,19 @@
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C18" s="1">
         <v>158</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="G18" s="1">
         <v>1</v>
@@ -1798,19 +1819,19 @@
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C19" s="1">
         <v>64</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G19" s="1">
         <v>1</v>
@@ -1821,19 +1842,19 @@
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C20" s="1">
         <v>64</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G20" s="1">
         <v>1</v>
@@ -1844,19 +1865,19 @@
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C21" s="1">
         <v>64</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="G21" s="1">
         <v>1</v>
@@ -1867,19 +1888,19 @@
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C22" s="1">
         <v>64</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="G22" s="1">
         <v>1</v>
@@ -1890,19 +1911,19 @@
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C23" s="1">
         <v>64</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G23" s="1">
         <v>1</v>
@@ -1913,19 +1934,19 @@
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C24" s="1">
         <v>64</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G24" s="1">
         <v>1</v>
@@ -1936,19 +1957,19 @@
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C25" s="1">
         <v>702</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G25" s="1">
         <v>13</v>
@@ -1959,19 +1980,19 @@
         <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C26" s="1">
         <v>702</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G26" s="1">
         <v>13</v>
@@ -1982,19 +2003,19 @@
         <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C27" s="1">
         <v>670</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G27" s="1">
         <v>1</v>
@@ -2005,19 +2026,19 @@
         <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C28" s="1">
         <v>1023</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="G28" s="1">
         <v>1</v>
@@ -2028,19 +2049,19 @@
         <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C29" s="1">
         <v>670</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="G29" s="1">
         <v>1</v>
@@ -2051,19 +2072,19 @@
         <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C30" s="1">
         <v>702</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="G30" s="1">
         <v>1</v>
@@ -2074,19 +2095,19 @@
         <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C31" s="1">
         <v>702</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="G31" s="1">
         <v>1</v>
@@ -2097,19 +2118,19 @@
         <v>28</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C32" s="1">
         <v>702</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E32" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="G32" s="1">
         <v>1</v>
@@ -2120,19 +2141,19 @@
         <v>29</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C33" s="1">
         <v>158</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G33" s="1">
         <v>10</v>
@@ -2143,19 +2164,19 @@
         <v>30</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C34" s="1">
         <v>158</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G34" s="1">
         <v>10</v>
@@ -2166,19 +2187,19 @@
         <v>31</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C35" s="1">
         <v>158</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E35" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="G35" s="1">
         <v>1</v>
@@ -2189,19 +2210,19 @@
         <v>32</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C36" s="1">
         <v>158</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E36" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="G36" s="1">
         <v>1</v>
@@ -2212,19 +2233,19 @@
         <v>33</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C37" s="1">
         <v>128</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E37" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="G37" s="1">
         <v>1</v>
@@ -2235,19 +2256,19 @@
         <v>34</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C38" s="1">
         <v>128</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G38" s="1">
         <v>1</v>
@@ -2258,71 +2279,129 @@
         <v>35</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C39" s="1">
         <v>128</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G39" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="40" customHeight="1" spans="1:7">
+    <row r="40" customHeight="1" spans="1:8">
       <c r="A40" s="1">
         <v>36</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C40" s="1">
         <v>64</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" spans="1:7">
+        <v>31</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:8">
       <c r="A41" s="1">
         <v>37</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C41" s="1">
         <v>644</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E41" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="103" ht="14.25"/>
+    </row>
+    <row r="42" customHeight="1" spans="1:8">
+      <c r="A42" s="1">
+        <v>38</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" s="1">
+        <v>64</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:8">
+      <c r="A43" s="1">
+        <v>39</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" s="1">
+        <v>644</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="103"/>
   </sheetData>
   <autoFilter ref="A1:B81">
     <sortState ref="A1:B81">

--- a/SceneServer/tools/Xlsx/kx_item_attr_custom.xlsx
+++ b/SceneServer/tools/Xlsx/kx_item_attr_custom.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28365" windowHeight="15255"/>
+    <workbookView windowHeight="15255"/>
   </bookViews>
   <sheets>
     <sheet name="kx_skill" sheetId="2" r:id="rId1"/>
@@ -27,21 +27,11 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>Minghua Zhang(Porton):</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-对应增加的基础属性，可以为多个</t>
+          <t>对应增加的基础属性，可以为多个</t>
         </r>
       </text>
     </comment>
@@ -49,21 +39,12 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>Minghua Zhang(Porton):</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-对应影响的数值，装备自定义属性对应增加基础属性的点数</t>
+          <t>对应影响的数值，装备自定义属性对应
+增加基础属性的点数</t>
         </r>
       </text>
     </comment>
@@ -441,7 +422,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -592,12 +573,6 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1384,7 +1359,7 @@
   <dimension ref="A1:H103"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="7"/>
@@ -2401,7 +2376,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="103"/>
+    <row r="103" ht="14.25"/>
   </sheetData>
   <autoFilter ref="A1:B81">
     <sortState ref="A1:B81">

--- a/SceneServer/tools/Xlsx/kx_item_attr_custom.xlsx
+++ b/SceneServer/tools/Xlsx/kx_item_attr_custom.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15255"/>
+    <workbookView windowHeight="16425"/>
   </bookViews>
   <sheets>
     <sheet name="kx_skill" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">kx_skill!$A$1:$B$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">kx_skill!$A$1:$B$78</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -23,7 +23,7 @@
     <author>Minghua Zhang(Porton)</author>
   </authors>
   <commentList>
-    <comment ref="F4" authorId="0">
+    <comment ref="E4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -35,7 +35,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0">
+    <comment ref="F4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -43,8 +43,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>对应影响的数值，装备自定义属性对应
-增加基础属性的点数</t>
+          <t>对应影响的数值，装备自定义属性对应增加基础属性的点数</t>
         </r>
       </text>
     </comment>
@@ -53,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="154">
   <si>
     <t>idx</t>
   </si>
@@ -61,9 +60,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>wear_mask</t>
-  </si>
-  <si>
     <t>display_name</t>
   </si>
   <si>
@@ -97,9 +93,6 @@
     <t>属性名称</t>
   </si>
   <si>
-    <t>穿戴位置掩码</t>
-  </si>
-  <si>
     <t>显示的名字</t>
   </si>
   <si>
@@ -406,10 +399,121 @@
     <t>物理技能攻击力Lv14</t>
   </si>
   <si>
+    <t>1;1;1;1;1;1;1;1;1;1;1;1;1;1;1;1;1;1;1;1;20;20;20;20;20</t>
+  </si>
+  <si>
+    <t>魔法技能攻击力Lv14</t>
+  </si>
+  <si>
     <t>1;1;1;1;1;1;1;1;1;1;1;1;1;1;1;1;1;1;1;1;21;22;23;24;25</t>
   </si>
   <si>
-    <t>魔法技能攻击力Lv14</t>
+    <t>物理攻击祝福</t>
+  </si>
+  <si>
+    <t>祝福</t>
+  </si>
+  <si>
+    <t>GodAttack</t>
+  </si>
+  <si>
+    <t>最小物理攻击力;最大物理攻击力;必杀成功率;降低对方格挡成功率;攻击成功率</t>
+  </si>
+  <si>
+    <t>18;36;22;27;27</t>
+  </si>
+  <si>
+    <t>魔法攻击祝福</t>
+  </si>
+  <si>
+    <t>GodAttackStaff</t>
+  </si>
+  <si>
+    <t>最小魔法攻击力;最大魔法攻击力;魔法必杀成功率;降低对方格挡成功率;攻击成功率</t>
+  </si>
+  <si>
+    <t>36;7;22;27;27</t>
+  </si>
+  <si>
+    <t>铠甲防御祝福</t>
+  </si>
+  <si>
+    <t>GodFirstDefense</t>
+  </si>
+  <si>
+    <t>物理防御力;物理防御千分比;魔法防御力;魔法防御千分比;必杀成功率;魔法必杀成功率</t>
+  </si>
+  <si>
+    <t>9;4;8;8;13;13</t>
+  </si>
+  <si>
+    <t>防具防御祝福</t>
+  </si>
+  <si>
+    <t>GodSecondDefense</t>
+  </si>
+  <si>
+    <t>物理防御力;物理防御千分比;魔法防御力;魔法防御千分比;生命恢复力;魔法恢复力</t>
+  </si>
+  <si>
+    <t>9;4;8;8;2;2</t>
+  </si>
+  <si>
+    <t>头盔防御祝福</t>
+  </si>
+  <si>
+    <t>GodThirdDefense</t>
+  </si>
+  <si>
+    <t>物理防御力;物理防御千分比;魔法防御力;魔法防御千分比;MaxHP;MaxMP</t>
+  </si>
+  <si>
+    <t>9;4;8;8;;24</t>
+  </si>
+  <si>
+    <t>护盾祝福</t>
+  </si>
+  <si>
+    <t>GodBlock</t>
+  </si>
+  <si>
+    <t>物理防御力;物理防御千分比;魔法防御力;魔法防御千分比;降低对方格挡成功率;魔法抵抗力</t>
+  </si>
+  <si>
+    <t>13;7;18;8;17;1</t>
+  </si>
+  <si>
+    <t>绝对防御力</t>
+  </si>
+  <si>
+    <t>AbsDefenseDamage</t>
+  </si>
+  <si>
+    <t>物理防御力;物理防御千分比;</t>
+  </si>
+  <si>
+    <t>5;2</t>
+  </si>
+  <si>
+    <t>绝对魔法防御力</t>
+  </si>
+  <si>
+    <t>AbsAllResist</t>
+  </si>
+  <si>
+    <t>魔法防御力;魔法防御千分比;</t>
+  </si>
+  <si>
+    <t>4;1</t>
+  </si>
+  <si>
+    <t>辅助魔法攻击力</t>
+  </si>
+  <si>
+    <t>SubLastSkillDamage</t>
+  </si>
+  <si>
+    <t>16;32</t>
   </si>
 </sst>
 </file>
@@ -1030,11 +1134,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1356,43 +1463,42 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H103"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="34.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="42.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="59.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18" style="1" customWidth="1"/>
-    <col min="13" max="13" width="82.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="16.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15.125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="39.5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="21.25" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.75" style="1" customWidth="1"/>
-    <col min="19" max="22" width="255.625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="51.375" style="1" customWidth="1"/>
-    <col min="24" max="24" width="14" style="1" customWidth="1"/>
-    <col min="25" max="25" width="18" style="1" customWidth="1"/>
-    <col min="26" max="26" width="13" style="1" customWidth="1"/>
-    <col min="27" max="27" width="9.375" style="1" customWidth="1"/>
-    <col min="28" max="28" width="54.125" style="1" customWidth="1"/>
-    <col min="29" max="16384" width="15.625" style="1"/>
+    <col min="3" max="3" width="26.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="94.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="39.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="59.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18" style="1" customWidth="1"/>
+    <col min="12" max="12" width="82.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="39.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="21.25" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12.75" style="1" customWidth="1"/>
+    <col min="18" max="21" width="255.625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="51.375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="14" style="1" customWidth="1"/>
+    <col min="24" max="24" width="18" style="1" customWidth="1"/>
+    <col min="25" max="25" width="13" style="1" customWidth="1"/>
+    <col min="26" max="26" width="9.375" style="1" customWidth="1"/>
+    <col min="27" max="27" width="54.125" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="15.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
+    <row r="1" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1414,974 +1520,1025 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" customHeight="1" spans="1:7">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:8">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:6">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:7">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:7">
+    </row>
+    <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="1">
-        <v>64</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="F5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:7">
+    <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="1">
-        <v>64</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="F6" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:7">
+    <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="1">
-        <v>64</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:7">
+    </row>
+    <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="1">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="1">
-        <v>64</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:7">
+    </row>
+    <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="1">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="1">
-        <v>544</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:7">
+    </row>
+    <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="1">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="1">
-        <v>544</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:7">
+    </row>
+    <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="1">
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="1">
-        <v>64</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="1">
+      <c r="F11" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:7">
+    <row r="12" customHeight="1" spans="1:6">
       <c r="A12" s="1">
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="1">
-        <v>64</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="1">
+      <c r="F12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:7">
+    <row r="13" customHeight="1" spans="1:6">
       <c r="A13" s="1">
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="1">
-        <v>64</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:7">
+    </row>
+    <row r="14" customHeight="1" spans="1:6">
       <c r="A14" s="1">
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="1">
-        <v>644</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:7">
+    </row>
+    <row r="15" customHeight="1" spans="1:6">
       <c r="A15" s="1">
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="1">
-        <v>544</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="1:7">
+    </row>
+    <row r="16" customHeight="1" spans="1:6">
       <c r="A16" s="1">
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="1">
-        <v>158</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="1:7">
+      <c r="F16" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:6">
       <c r="A17" s="1">
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="1">
-        <v>670</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:7">
+      <c r="F17" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:6">
       <c r="A18" s="1">
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="1">
-        <v>158</v>
+        <v>58</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:7">
+        <v>58</v>
+      </c>
+      <c r="F18" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:6">
       <c r="A19" s="1">
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="1">
-        <v>64</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:7">
+      <c r="F19" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:6">
       <c r="A20" s="1">
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="1">
-        <v>64</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="1:7">
+      <c r="F20" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:6">
       <c r="A21" s="1">
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="1">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="1:7">
+        <v>66</v>
+      </c>
+      <c r="F21" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:6">
       <c r="A22" s="1">
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" s="1">
-        <v>64</v>
+        <v>68</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="1:7">
+        <v>68</v>
+      </c>
+      <c r="F22" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:6">
       <c r="A23" s="1">
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="1">
-        <v>64</v>
+        <v>62</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="1:7">
+        <v>62</v>
+      </c>
+      <c r="F23" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:6">
       <c r="A24" s="1">
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="1">
-        <v>64</v>
+        <v>71</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="1:7">
+        <v>65</v>
+      </c>
+      <c r="F24" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:6">
       <c r="A25" s="1">
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="1">
-        <v>702</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G25" s="1">
+      <c r="F25" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="1:7">
+    <row r="26" customHeight="1" spans="1:6">
       <c r="A26" s="1">
         <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="1">
-        <v>702</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G26" s="1">
+      <c r="F26" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="1:7">
+    <row r="27" customHeight="1" spans="1:6">
       <c r="A27" s="1">
         <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="1">
-        <v>670</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G27" s="1">
+      <c r="F27" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="1:7">
+    <row r="28" customHeight="1" spans="1:6">
       <c r="A28" s="1">
         <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1023</v>
+        <v>82</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G28" s="1">
+        <v>81</v>
+      </c>
+      <c r="F28" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="29" customHeight="1" spans="1:7">
+    <row r="29" customHeight="1" spans="1:6">
       <c r="A29" s="1">
         <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" s="1">
-        <v>670</v>
+        <v>84</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G29" s="1">
+        <v>84</v>
+      </c>
+      <c r="F29" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="30" customHeight="1" spans="1:7">
+    <row r="30" customHeight="1" spans="1:6">
       <c r="A30" s="1">
         <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="1">
-        <v>702</v>
+        <v>86</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G30" s="1">
+        <v>86</v>
+      </c>
+      <c r="F30" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="31" customHeight="1" spans="1:7">
+    <row r="31" customHeight="1" spans="1:6">
       <c r="A31" s="1">
         <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C31" s="1">
-        <v>702</v>
+        <v>88</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G31" s="1">
+        <v>88</v>
+      </c>
+      <c r="F31" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="32" customHeight="1" spans="1:7">
+    <row r="32" customHeight="1" spans="1:6">
       <c r="A32" s="1">
         <v>28</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C32" s="1">
-        <v>702</v>
+        <v>90</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G32" s="1">
+        <v>90</v>
+      </c>
+      <c r="F32" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="33" customHeight="1" spans="1:7">
+    <row r="33" customHeight="1" spans="1:6">
       <c r="A33" s="1">
         <v>29</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C33" s="1">
-        <v>158</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G33" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="1:7">
+      <c r="F33" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:6">
       <c r="A34" s="1">
         <v>30</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C34" s="1">
-        <v>158</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G34" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="1:7">
+      <c r="F34" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:6">
       <c r="A35" s="1">
         <v>31</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C35" s="1">
-        <v>158</v>
+        <v>98</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G35" s="1">
+        <v>98</v>
+      </c>
+      <c r="F35" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="1:7">
+    <row r="36" customHeight="1" spans="1:6">
       <c r="A36" s="1">
         <v>32</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C36" s="1">
-        <v>158</v>
+        <v>100</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G36" s="1">
+        <v>100</v>
+      </c>
+      <c r="F36" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="37" customHeight="1" spans="1:7">
+    <row r="37" customHeight="1" spans="1:6">
       <c r="A37" s="1">
         <v>33</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C37" s="1">
-        <v>128</v>
+        <v>102</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G37" s="1">
+        <v>102</v>
+      </c>
+      <c r="F37" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="1:7">
+    <row r="38" customHeight="1" spans="1:6">
       <c r="A38" s="1">
         <v>34</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C38" s="1">
-        <v>128</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G38" s="1">
+      <c r="F38" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="1:7">
+    <row r="39" customHeight="1" spans="1:6">
       <c r="A39" s="1">
         <v>35</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C39" s="1">
-        <v>128</v>
+        <v>107</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G39" s="1">
+        <v>108</v>
+      </c>
+      <c r="F39" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="40" customHeight="1" spans="1:8">
+    <row r="40" customHeight="1" spans="1:7">
       <c r="A40" s="1">
         <v>36</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C40" s="1">
-        <v>64</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" spans="1:8">
+    </row>
+    <row r="41" customHeight="1" spans="1:7">
       <c r="A41" s="1">
         <v>37</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C41" s="1">
-        <v>644</v>
+        <v>112</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D41" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="G41" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:7">
       <c r="A42" s="1">
         <v>38</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C42" s="1">
-        <v>64</v>
+        <v>114</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="D42" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="G42" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" spans="1:8">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:7">
       <c r="A43" s="1">
         <v>39</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:6">
+      <c r="A44" s="1">
+        <v>40</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C43" s="1">
-        <v>644</v>
-      </c>
-      <c r="D43" s="1" t="s">
+      <c r="C44" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:6">
+      <c r="A45" s="1">
+        <v>41</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:6">
+      <c r="A46" s="1">
+        <v>42</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="1:6">
+      <c r="A47" s="1">
+        <v>43</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:6">
+      <c r="A48" s="1">
+        <v>44</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:6">
+      <c r="A49" s="1">
+        <v>45</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:6">
+      <c r="A50" s="1">
+        <v>46</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:6">
+      <c r="A51" s="1">
+        <v>47</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:6">
+      <c r="A52" s="1">
         <v>48</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="103" ht="14.25"/>
+      <c r="B52" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="100" ht="14.25"/>
   </sheetData>
-  <autoFilter ref="A1:B81">
-    <sortState ref="A1:B81">
-      <sortCondition ref="A1:A80"/>
-    </sortState>
+  <autoFilter ref="A1:B78">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SceneServer/tools/Xlsx/kx_item_attr_custom.xlsx
+++ b/SceneServer/tools/Xlsx/kx_item_attr_custom.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">kx_skill!$A$1:$B$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">kx_skill!$A$1:$B$77</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -1463,10 +1463,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="6"/>
@@ -2536,9 +2536,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="100" ht="14.25"/>
+    <row r="99" ht="14.25"/>
   </sheetData>
-  <autoFilter ref="A1:B78">
+  <autoFilter ref="A1:B77">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SceneServer/tools/Xlsx/kx_item_attr_custom.xlsx
+++ b/SceneServer/tools/Xlsx/kx_item_attr_custom.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16425"/>
+    <workbookView windowWidth="26220" windowHeight="14460"/>
   </bookViews>
   <sheets>
     <sheet name="kx_skill" sheetId="2" r:id="rId1"/>
@@ -468,7 +468,7 @@
     <t>物理防御力;物理防御千分比;魔法防御力;魔法防御千分比;MaxHP;MaxMP</t>
   </si>
   <si>
-    <t>9;4;8;8;;24</t>
+    <t>9;4;8;8;12;24</t>
   </si>
   <si>
     <t>护盾祝福</t>
@@ -1465,8 +1465,8 @@
   <sheetPr/>
   <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="C23" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="6"/>

--- a/SceneServer/tools/Xlsx/kx_item_attr_custom.xlsx
+++ b/SceneServer/tools/Xlsx/kx_item_attr_custom.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26220" windowHeight="14460"/>
+    <workbookView windowHeight="17820"/>
   </bookViews>
   <sheets>
     <sheet name="kx_skill" sheetId="2" r:id="rId1"/>
@@ -1465,8 +1465,8 @@
   <sheetPr/>
   <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C23" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="6"/>
